--- a/Cuadernos/Data/hogares.xlsx
+++ b/Cuadernos/Data/hogares.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="ingresos_hogares" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">ingresos_hogares!$A$1:$G$121</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -43,19 +46,19 @@
     <t xml:space="preserve">Ahorro Mensual (USD)</t>
   </si>
   <si>
-    <t xml:space="preserve">Urbano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secundaria</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rural</t>
   </si>
   <si>
     <t xml:space="preserve">Primaria</t>
   </si>
   <si>
+    <t xml:space="preserve">Urbano</t>
+  </si>
+  <si>
     <t xml:space="preserve">Universitario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secundaria</t>
   </si>
   <si>
     <t xml:space="preserve">Sin educación formal</t>
@@ -73,6 +76,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -94,6 +98,7 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -214,6 +219,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -222,13 +231,13 @@
   <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.07"/>
@@ -269,16 +278,16 @@
         <v>8</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>4800</v>
+        <v>3516</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>2800</v>
+        <v>1400</v>
       </c>
       <c r="G2" s="6" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -292,16 +301,16 @@
         <v>10</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>2376</v>
+        <v>3029</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>1600</v>
+        <v>3100</v>
       </c>
       <c r="G3" s="6" t="n">
-        <v>200</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -315,16 +324,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>779</v>
+        <v>4691</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3000</v>
+        <v>1900</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -338,16 +347,16 @@
         <v>10</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1990</v>
+        <v>1823</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>200</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -358,19 +367,19 @@
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1937</v>
+        <v>4796</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2000</v>
+        <v>850</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -378,22 +387,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>709</v>
+        <v>1688</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>700</v>
+        <v>1900</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -404,19 +413,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1120</v>
+        <v>4495</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1100</v>
+        <v>1600</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -427,19 +436,19 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2036</v>
+        <v>661</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -447,22 +456,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3450</v>
+        <v>1698</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -470,19 +479,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>677</v>
+        <v>1951</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1300</v>
+        <v>1800</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>200</v>
@@ -493,22 +502,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2062</v>
+        <v>1838</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -516,22 +525,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4202</v>
+        <v>2011</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>800</v>
+        <v>1700</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -542,19 +551,19 @@
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2768</v>
+        <v>3216</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2200</v>
+        <v>850</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -568,16 +577,16 @@
         <v>8</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2911</v>
+        <v>1120</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -585,22 +594,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1823</v>
+        <v>598</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>1300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -611,19 +620,19 @@
         <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2908</v>
+        <v>461</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1500</v>
+        <v>2700</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -631,22 +640,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4197</v>
+        <v>2604</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -654,22 +663,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2169</v>
+        <v>1524</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>850</v>
+        <v>1600</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -677,16 +686,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2604</v>
+        <v>4788</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>2300</v>
@@ -700,22 +709,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4322</v>
+        <v>1723</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1900</v>
+        <v>800</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,22 +732,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1393</v>
+        <v>1170</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2700</v>
+        <v>2100</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -752,16 +761,16 @@
         <v>10</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2076</v>
+        <v>3628</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>200</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -775,16 +784,16 @@
         <v>8</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>657</v>
+        <v>2376</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2800</v>
+        <v>1600</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -792,22 +801,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3352</v>
+        <v>2375</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>750</v>
+        <v>2000</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -818,19 +827,19 @@
         <v>7</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1697</v>
+        <v>2491</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -844,16 +853,16 @@
         <v>8</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2331</v>
+        <v>2449</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -861,7 +870,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>11</v>
@@ -870,13 +879,13 @@
         <v>3</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1748</v>
+        <v>3300</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>1600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -884,22 +893,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1880</v>
+        <v>2908</v>
       </c>
       <c r="F29" s="5" t="n">
         <v>1500</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -913,16 +922,16 @@
         <v>8</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3264</v>
+        <v>1976</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -930,22 +939,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D31" s="5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>4740</v>
+        <v>1128</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -956,16 +965,16 @@
         <v>7</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D32" s="5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>598</v>
+        <v>2550</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>200</v>
@@ -979,19 +988,19 @@
         <v>9</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D33" s="5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2885</v>
+        <v>4839</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>1900</v>
+        <v>3100</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1002,19 +1011,19 @@
         <v>7</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2455</v>
+        <v>3239</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1025,19 +1034,19 @@
         <v>9</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>642</v>
+        <v>1647</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1700</v>
+        <v>2600</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1051,16 +1060,16 @@
         <v>8</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>661</v>
+        <v>3577</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1071,19 +1080,19 @@
         <v>9</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>869</v>
+        <v>2522</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>750</v>
+        <v>2200</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1094,19 +1103,19 @@
         <v>7</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D38" s="5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>3686</v>
+        <v>709</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1200</v>
+        <v>700</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1114,22 +1123,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1872</v>
+        <v>677</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1137,22 +1146,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>542</v>
+        <v>4197</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1160,19 +1169,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3516</v>
+        <v>1990</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>200</v>
@@ -1186,19 +1195,19 @@
         <v>7</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4213</v>
+        <v>2428</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2700</v>
+        <v>750</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1209,19 +1218,19 @@
         <v>9</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43" s="5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>3216</v>
+        <v>4800</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>850</v>
+        <v>2800</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1232,19 +1241,19 @@
         <v>7</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>4788</v>
+        <v>869</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>2300</v>
+        <v>750</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1258,16 +1267,16 @@
         <v>8</v>
       </c>
       <c r="D45" s="5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>1688</v>
+        <v>3686</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1275,22 +1284,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>808</v>
+        <v>542</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>1200</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1304,16 +1313,16 @@
         <v>10</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2690</v>
+        <v>2455</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1321,22 +1330,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>3299</v>
+        <v>2433</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1344,22 +1353,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D49" s="5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>1875</v>
+        <v>3864</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>800</v>
+        <v>1900</v>
       </c>
       <c r="G49" s="6" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1370,19 +1379,19 @@
         <v>7</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>8</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>1564</v>
+        <v>2726</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1396,16 +1405,16 @@
         <v>8</v>
       </c>
       <c r="D51" s="5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>2011</v>
+        <v>1457</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1416,19 +1425,19 @@
         <v>7</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D52" s="5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>2505</v>
+        <v>2169</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>2800</v>
+        <v>850</v>
       </c>
       <c r="G52" s="6" t="n">
-        <v>1300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1436,22 +1445,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>3239</v>
+        <v>2331</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="G53" s="6" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1459,16 +1468,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>461</v>
+        <v>2062</v>
       </c>
       <c r="F54" s="5" t="n">
         <v>2700</v>
@@ -1482,22 +1491,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D55" s="5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>4748</v>
+        <v>1515</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>850</v>
+        <v>1600</v>
       </c>
       <c r="G55" s="6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1508,16 +1517,16 @@
         <v>7</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D56" s="5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>4591</v>
+        <v>4322</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>300</v>
@@ -1531,19 +1540,19 @@
         <v>9</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D57" s="5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>4691</v>
+        <v>1393</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>1900</v>
+        <v>2700</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1551,22 +1560,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D58" s="5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>1003</v>
+        <v>2210</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="G58" s="6" t="n">
-        <v>1200</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1580,16 +1589,16 @@
         <v>10</v>
       </c>
       <c r="D59" s="5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E59" s="5" t="n">
-        <v>3577</v>
+        <v>2505</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="G59" s="6" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1597,22 +1606,22 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D60" s="5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>3300</v>
+        <v>3586</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>2600</v>
+        <v>3100</v>
       </c>
       <c r="G60" s="6" t="n">
-        <v>400</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1623,19 +1632,19 @@
         <v>9</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D61" s="5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>3911</v>
+        <v>2768</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>750</v>
+        <v>2200</v>
       </c>
       <c r="G61" s="6" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1643,22 +1652,22 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D62" s="5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>4165</v>
+        <v>3905</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>1900</v>
+        <v>2600</v>
       </c>
       <c r="G62" s="6" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1672,16 +1681,16 @@
         <v>8</v>
       </c>
       <c r="D63" s="5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>4495</v>
+        <v>4349</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="G63" s="6" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1689,22 +1698,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D64" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>3018</v>
+        <v>3450</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>3100</v>
+        <v>2700</v>
       </c>
       <c r="G64" s="6" t="n">
-        <v>1200</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1718,16 +1727,16 @@
         <v>10</v>
       </c>
       <c r="D65" s="5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>4001</v>
+        <v>4605</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="G65" s="6" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1735,22 +1744,22 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>1698</v>
+        <v>3171</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="G66" s="6" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1758,22 +1767,22 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D67" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>2499</v>
+        <v>1880</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>850</v>
+        <v>1500</v>
       </c>
       <c r="G67" s="6" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1784,19 +1793,19 @@
         <v>7</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D68" s="5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>3171</v>
+        <v>4740</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>2100</v>
+        <v>800</v>
       </c>
       <c r="G68" s="6" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1807,19 +1816,19 @@
         <v>9</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D69" s="5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>2726</v>
+        <v>3595</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>1900</v>
+        <v>2600</v>
       </c>
       <c r="G69" s="6" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1830,19 +1839,19 @@
         <v>7</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D70" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>2628</v>
+        <v>3528</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>2900</v>
+        <v>850</v>
       </c>
       <c r="G70" s="6" t="n">
-        <v>1300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1853,19 +1862,19 @@
         <v>9</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D71" s="5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>1524</v>
+        <v>4213</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>1600</v>
+        <v>2700</v>
       </c>
       <c r="G71" s="6" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1873,22 +1882,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>2433</v>
+        <v>1464</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="G72" s="6" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1896,22 +1905,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D73" s="5" t="n">
         <v>8</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>1982</v>
+        <v>4001</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>750</v>
+        <v>1600</v>
       </c>
       <c r="G73" s="6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1922,19 +1931,19 @@
         <v>7</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D74" s="5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>898</v>
+        <v>2911</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>2300</v>
+        <v>1700</v>
       </c>
       <c r="G74" s="6" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1948,10 +1957,10 @@
         <v>8</v>
       </c>
       <c r="D75" s="5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>3158</v>
+        <v>4165</v>
       </c>
       <c r="F75" s="5" t="n">
         <v>1900</v>
@@ -1965,22 +1974,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D76" s="5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>3628</v>
+        <v>779</v>
       </c>
       <c r="F76" s="5" t="n">
         <v>3000</v>
       </c>
       <c r="G76" s="6" t="n">
-        <v>1100</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1988,19 +1997,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D77" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>4477</v>
+        <v>3158</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="G77" s="6" t="n">
         <v>200</v>
@@ -2011,22 +2020,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D78" s="5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>1647</v>
+        <v>657</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="G78" s="6" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2037,19 +2046,19 @@
         <v>9</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D79" s="5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>4796</v>
+        <v>2018</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>850</v>
+        <v>2300</v>
       </c>
       <c r="G79" s="6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2060,19 +2069,19 @@
         <v>7</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D80" s="5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>1457</v>
+        <v>1826</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="G80" s="6" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2080,22 +2089,22 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D81" s="5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>2550</v>
+        <v>945</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>2000</v>
+        <v>750</v>
       </c>
       <c r="G81" s="6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2109,16 +2118,16 @@
         <v>11</v>
       </c>
       <c r="D82" s="5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>2943</v>
+        <v>1363</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>3100</v>
+        <v>1900</v>
       </c>
       <c r="G82" s="6" t="n">
-        <v>1400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2132,16 +2141,16 @@
         <v>10</v>
       </c>
       <c r="D83" s="5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>2012</v>
+        <v>3018</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>1400</v>
+        <v>3100</v>
       </c>
       <c r="G83" s="6" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2149,19 +2158,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D84" s="5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>3595</v>
+        <v>4134</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="G84" s="6" t="n">
         <v>500</v>
@@ -2172,22 +2181,22 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D85" s="5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>2428</v>
+        <v>2690</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>750</v>
+        <v>1300</v>
       </c>
       <c r="G85" s="6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2195,22 +2204,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D86" s="5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>2018</v>
+        <v>4591</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="G86" s="6" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2224,13 +2233,13 @@
         <v>8</v>
       </c>
       <c r="D87" s="5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>1951</v>
+        <v>898</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="G87" s="6" t="n">
         <v>200</v>
@@ -2241,22 +2250,22 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D88" s="5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>3586</v>
+        <v>3264</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>3100</v>
+        <v>2700</v>
       </c>
       <c r="G88" s="6" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2264,22 +2273,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D89" s="5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>1365</v>
+        <v>1875</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="G89" s="6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2287,22 +2296,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D90" s="5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E90" s="5" t="n">
-        <v>2352</v>
+        <v>1697</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>2700</v>
+        <v>1200</v>
       </c>
       <c r="G90" s="6" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2310,22 +2319,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D91" s="5" t="n">
         <v>7</v>
       </c>
       <c r="E91" s="5" t="n">
-        <v>604</v>
+        <v>2036</v>
       </c>
       <c r="F91" s="5" t="n">
-        <v>800</v>
+        <v>1900</v>
       </c>
       <c r="G91" s="6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2333,22 +2342,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D92" s="5" t="n">
         <v>3</v>
       </c>
       <c r="E92" s="5" t="n">
-        <v>2449</v>
+        <v>1937</v>
       </c>
       <c r="F92" s="5" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="G92" s="6" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2356,16 +2365,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D93" s="5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E93" s="5" t="n">
-        <v>1363</v>
+        <v>2885</v>
       </c>
       <c r="F93" s="5" t="n">
         <v>1900</v>
@@ -2385,16 +2394,16 @@
         <v>11</v>
       </c>
       <c r="D94" s="5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E94" s="5" t="n">
-        <v>4839</v>
+        <v>1872</v>
       </c>
       <c r="F94" s="5" t="n">
-        <v>3100</v>
+        <v>1800</v>
       </c>
       <c r="G94" s="6" t="n">
-        <v>1400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2408,16 +2417,16 @@
         <v>10</v>
       </c>
       <c r="D95" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E95" s="5" t="n">
-        <v>4495</v>
+        <v>1748</v>
       </c>
       <c r="F95" s="5" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G95" s="6" t="n">
         <v>1600</v>
-      </c>
-      <c r="G95" s="6" t="n">
-        <v>200</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2425,22 +2434,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D96" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E96" s="5" t="n">
-        <v>1838</v>
+        <v>4547</v>
       </c>
       <c r="F96" s="5" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="G96" s="6" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2448,19 +2457,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D97" s="5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E97" s="5" t="n">
-        <v>1723</v>
+        <v>1982</v>
       </c>
       <c r="F97" s="5" t="n">
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="G97" s="6" t="n">
         <v>100</v>
@@ -2474,19 +2483,19 @@
         <v>7</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D98" s="5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E98" s="5" t="n">
-        <v>1464</v>
+        <v>3352</v>
       </c>
       <c r="F98" s="5" t="n">
-        <v>2000</v>
+        <v>750</v>
       </c>
       <c r="G98" s="6" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2494,19 +2503,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D99" s="5" t="n">
         <v>8</v>
       </c>
       <c r="E99" s="5" t="n">
-        <v>1826</v>
+        <v>3139</v>
       </c>
       <c r="F99" s="5" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="G99" s="6" t="n">
         <v>300</v>
@@ -2520,19 +2529,19 @@
         <v>7</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D100" s="5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E100" s="5" t="n">
-        <v>2210</v>
+        <v>4748</v>
       </c>
       <c r="F100" s="5" t="n">
-        <v>2900</v>
+        <v>850</v>
       </c>
       <c r="G100" s="6" t="n">
-        <v>1400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2540,22 +2549,22 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D101" s="5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E101" s="5" t="n">
-        <v>2313</v>
+        <v>4495</v>
       </c>
       <c r="F101" s="5" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="G101" s="6" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2569,16 +2578,16 @@
         <v>8</v>
       </c>
       <c r="D102" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E102" s="5" t="n">
-        <v>3905</v>
+        <v>4477</v>
       </c>
       <c r="F102" s="5" t="n">
-        <v>2600</v>
+        <v>1600</v>
       </c>
       <c r="G102" s="6" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2586,7 +2595,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>12</v>
@@ -2595,10 +2604,10 @@
         <v>3</v>
       </c>
       <c r="E103" s="5" t="n">
-        <v>3528</v>
+        <v>4202</v>
       </c>
       <c r="F103" s="5" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="G103" s="6" t="n">
         <v>100</v>
@@ -2612,19 +2621,19 @@
         <v>7</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D104" s="5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E104" s="5" t="n">
-        <v>1170</v>
+        <v>642</v>
       </c>
       <c r="F104" s="5" t="n">
-        <v>2100</v>
+        <v>1700</v>
       </c>
       <c r="G104" s="6" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2635,19 +2644,19 @@
         <v>9</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D105" s="5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E105" s="5" t="n">
-        <v>2375</v>
+        <v>2943</v>
       </c>
       <c r="F105" s="5" t="n">
-        <v>2000</v>
+        <v>3100</v>
       </c>
       <c r="G105" s="6" t="n">
-        <v>300</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2655,22 +2664,22 @@
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D106" s="5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E106" s="5" t="n">
-        <v>4605</v>
+        <v>1564</v>
       </c>
       <c r="F106" s="5" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="G106" s="6" t="n">
-        <v>1200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2678,16 +2687,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D107" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E107" s="5" t="n">
-        <v>1128</v>
+        <v>2076</v>
       </c>
       <c r="F107" s="5" t="n">
         <v>1400</v>
@@ -2704,19 +2713,19 @@
         <v>7</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D108" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E108" s="5" t="n">
-        <v>4134</v>
+        <v>3911</v>
       </c>
       <c r="F108" s="5" t="n">
-        <v>2800</v>
+        <v>750</v>
       </c>
       <c r="G108" s="6" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2724,22 +2733,22 @@
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D109" s="5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E109" s="5" t="n">
-        <v>1196</v>
+        <v>2012</v>
       </c>
       <c r="F109" s="5" t="n">
-        <v>750</v>
+        <v>1400</v>
       </c>
       <c r="G109" s="6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2750,19 +2759,19 @@
         <v>7</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D110" s="5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E110" s="5" t="n">
-        <v>4349</v>
+        <v>2499</v>
       </c>
       <c r="F110" s="5" t="n">
-        <v>2300</v>
+        <v>850</v>
       </c>
       <c r="G110" s="6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2770,22 +2779,22 @@
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D111" s="5" t="n">
         <v>3</v>
       </c>
       <c r="E111" s="5" t="n">
-        <v>3864</v>
+        <v>1196</v>
       </c>
       <c r="F111" s="5" t="n">
-        <v>1900</v>
+        <v>750</v>
       </c>
       <c r="G111" s="6" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2793,7 +2802,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>11</v>
@@ -2802,13 +2811,13 @@
         <v>7</v>
       </c>
       <c r="E112" s="5" t="n">
-        <v>3029</v>
+        <v>4555</v>
       </c>
       <c r="F112" s="5" t="n">
-        <v>3100</v>
+        <v>2700</v>
       </c>
       <c r="G112" s="6" t="n">
-        <v>1300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2819,19 +2828,19 @@
         <v>9</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D113" s="5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E113" s="5" t="n">
-        <v>1515</v>
+        <v>3299</v>
       </c>
       <c r="F113" s="5" t="n">
-        <v>1600</v>
+        <v>2800</v>
       </c>
       <c r="G113" s="6" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2839,22 +2848,22 @@
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D114" s="5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E114" s="5" t="n">
-        <v>4547</v>
+        <v>808</v>
       </c>
       <c r="F114" s="5" t="n">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="G114" s="6" t="n">
-        <v>400</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2862,22 +2871,22 @@
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D115" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E115" s="5" t="n">
-        <v>2491</v>
+        <v>1365</v>
       </c>
       <c r="F115" s="5" t="n">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="G115" s="6" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2885,22 +2894,22 @@
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D116" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E116" s="5" t="n">
-        <v>2522</v>
+        <v>1003</v>
       </c>
       <c r="F116" s="5" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="G116" s="6" t="n">
-        <v>200</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2911,19 +2920,19 @@
         <v>9</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D117" s="5" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E117" s="5" t="n">
-        <v>3139</v>
+        <v>1022</v>
       </c>
       <c r="F117" s="5" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G117" s="6" t="n">
-        <v>300</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2931,19 +2940,19 @@
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D118" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E118" s="5" t="n">
-        <v>1022</v>
+        <v>2628</v>
       </c>
       <c r="F118" s="5" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="G118" s="6" t="n">
         <v>1300</v>
@@ -2954,22 +2963,22 @@
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D119" s="5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E119" s="5" t="n">
-        <v>1976</v>
+        <v>604</v>
       </c>
       <c r="F119" s="5" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="G119" s="6" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2986,13 +2995,13 @@
         <v>7</v>
       </c>
       <c r="E120" s="5" t="n">
-        <v>4555</v>
+        <v>2313</v>
       </c>
       <c r="F120" s="5" t="n">
-        <v>2700</v>
+        <v>1500</v>
       </c>
       <c r="G120" s="6" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3003,22 +3012,23 @@
         <v>9</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D121" s="5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E121" s="5" t="n">
-        <v>945</v>
+        <v>2352</v>
       </c>
       <c r="F121" s="5" t="n">
-        <v>750</v>
+        <v>2700</v>
       </c>
       <c r="G121" s="6" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G121"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3026,5 +3036,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>